--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/20a55f778d8954b9/Documents/sri git folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC104807711966705ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE16AE8A-AE62-4B4C-97C5-0A23282F0A46}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC104807711966705ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC17AE63-2D00-4754-B594-76AAB15E9540}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>srikanth</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t xml:space="preserve">bhavya sri </t>
+  </si>
+  <si>
+    <t>chanti</t>
+  </si>
+  <si>
+    <t>lakshmi</t>
+  </si>
+  <si>
+    <t>polaiah</t>
   </si>
 </sst>
 </file>
@@ -354,32 +363,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
